--- a/documentacion/Casos de prueba travelocity.xlsx
+++ b/documentacion/Casos de prueba travelocity.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\QV-3801\Documents\2.PERSONAL\Personal\planpruebas\Automatiazciones Pruebas\PruebaDevCo\documentacion\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CE01899-C523-4211-845E-B7BB18095EA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C814D4DC-6F9F-4C83-86D8-F543F0C83A26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{A2724660-D973-451E-B757-1F4F1FE213EB}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="120">
   <si>
     <t>Travelocity - Casos de prueba</t>
   </si>
@@ -930,103 +930,6 @@
     <t>Se puede observar las opciones disponibles para la ciudad ingresada</t>
   </si>
   <si>
-    <t>Verá su nombre en el menu</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Escenario:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> iniciar sesion
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Dado:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">  que el cliente se encuentra en la pagina de inicio
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Cuando:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> inicia sesion
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>entonces:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">  verá su nombre en la barra de menu</t>
-    </r>
-  </si>
-  <si>
-    <t>1. Abrir el sitio web www.travelocity.com
-2. clic en "iniciar sesion"
-3. clic en "iniciar sesion"
-4. ingresa email o usuario
-5. ingresa contraseña
-6. clicl en iniciar sesion
-7. verá su nombre en la barra de menu</t>
-  </si>
-  <si>
     <t>Se puede observar el nombre de la cuenta en el menu</t>
   </si>
   <si>
@@ -1995,91 +1898,6 @@
   </si>
   <si>
     <t>Automatizado</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Escenario:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> verificar captcha
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Dado:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">  que el cliente se encuentra en la pagina de inicio
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Cuando:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> crea una cuenta
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>entonces:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> verá la pantalla del captcha</t>
-    </r>
   </si>
   <si>
     <t>1. Abrir el sitio web www.travelocity.com
@@ -2098,6 +1916,385 @@
   </si>
   <si>
     <t>Se puede observar la pantalla de captcha</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Escenario:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> iniciar sesion
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Dado:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">  que el cliente se encuentra en la pagina de inicio
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Cuando:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> inicia sesion
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>entonces:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">   verá la pantalla del captcha</t>
+    </r>
+  </si>
+  <si>
+    <t>1. Abrir el sitio web www.travelocity.com
+2. clic en "iniciar sesion"
+3. clic en "iniciar sesion"
+4. ingresa email o usuario
+5. ingresa contraseña
+6. clicl en iniciar sesion
+7. verá la pantalla del captcha</t>
+  </si>
+  <si>
+    <t>1. Abrir el sitio web www.travelocity.com
+2. clic en "iniciar sesion"
+3. clic en "crear una cuenta gratis"
+4. ingresar nombre
+5. ingresar apellido
+6. ingresa correo electronico
+7. ingresa contraseña y la confirma
+8. clicl en acepta terminos
+9. click en "crear cuenta"
+10.  verá el nombre ingresado al crear la cuenta en la barra de menu</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> verá el nombre ingresado al crear la cuenta en la barra de menu</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Escenario:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> iniciar sesion
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Dado:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">  que el cliente se encuentra en la pagina de inicio
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Cuando:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> inicia sesion
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>entonces:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">    verá el nombre ingresado al crear la cuenta en la barra de menu</t>
+    </r>
+  </si>
+  <si>
+    <t>1. Abrir el sitio web www.travelocity.com
+2. clic en "iniciar sesion"
+3. clic en "iniciar sesion"
+4. ingresa email o usuario
+5. ingresa contraseña
+6. clicl en iniciar sesion
+7.  verá el nombre ingresado al crear la cuenta en la barra de menu</t>
+  </si>
+  <si>
+    <t>CP_22</t>
+  </si>
+  <si>
+    <t>CP_23</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Escenario:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> crear cuenta nueva
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Dado:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">  que el cliente se encuentra en la pagina de inicio
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Cuando:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> crea una cuenta
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>entonces:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> verá el nombre ingresado al crear la cuenta en la barra de menu</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Escenario:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> crear cuenta nueva
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Dado:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">  que el cliente se encuentra en la pagina de inicio
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Cuando:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> crea una cuenta
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>entonces:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> verá la pantalla del captcha</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -2208,7 +2405,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2234,19 +2431,22 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2563,10 +2763,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{686D6665-DFC6-41EB-87A5-B2A45D907314}">
-  <dimension ref="A1:Q23"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="J13" sqref="J13:K13"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2585,19 +2785,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="18" x14ac:dyDescent="0.25">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
-      <c r="G1" s="12"/>
-      <c r="H1" s="12"/>
-      <c r="I1" s="12"/>
-      <c r="J1" s="12"/>
-      <c r="K1" s="12"/>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="14"/>
+      <c r="H1" s="14"/>
+      <c r="I1" s="14"/>
+      <c r="J1" s="14"/>
+      <c r="K1" s="14"/>
       <c r="L1" s="3"/>
       <c r="M1" s="3"/>
       <c r="N1" s="3"/>
@@ -2609,11 +2809,11 @@
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="13" t="s">
+      <c r="B2" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="13"/>
-      <c r="D2" s="13"/>
+      <c r="C2" s="11"/>
+      <c r="D2" s="11"/>
       <c r="E2" s="4" t="s">
         <v>7</v>
       </c>
@@ -2629,20 +2829,20 @@
       <c r="I2" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="J2" s="9" t="s">
+      <c r="J2" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="K2" s="10"/>
+      <c r="K2" s="13"/>
     </row>
     <row r="3" spans="1:17" ht="107.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="C3" s="11"/>
-      <c r="D3" s="11"/>
+      <c r="C3" s="10"/>
+      <c r="D3" s="10"/>
       <c r="E3" s="1" t="s">
         <v>30</v>
       </c>
@@ -2658,18 +2858,18 @@
       <c r="I3" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="J3" s="9"/>
-      <c r="K3" s="10"/>
+      <c r="J3" s="12"/>
+      <c r="K3" s="13"/>
     </row>
     <row r="4" spans="1:17" ht="109.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="11" t="s">
+      <c r="B4" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="C4" s="11"/>
-      <c r="D4" s="11"/>
+      <c r="C4" s="10"/>
+      <c r="D4" s="10"/>
       <c r="E4" s="1" t="s">
         <v>38</v>
       </c>
@@ -2685,18 +2885,18 @@
       <c r="I4" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="J4" s="9"/>
-      <c r="K4" s="10"/>
+      <c r="J4" s="12"/>
+      <c r="K4" s="13"/>
     </row>
     <row r="5" spans="1:17" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="11" t="s">
+      <c r="B5" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="C5" s="11"/>
-      <c r="D5" s="11"/>
+      <c r="C5" s="10"/>
+      <c r="D5" s="10"/>
       <c r="E5" s="1" t="s">
         <v>39</v>
       </c>
@@ -2712,20 +2912,20 @@
       <c r="I5" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="J5" s="9" t="s">
-        <v>109</v>
-      </c>
-      <c r="K5" s="10"/>
+      <c r="J5" s="12" t="s">
+        <v>106</v>
+      </c>
+      <c r="K5" s="13"/>
     </row>
     <row r="6" spans="1:17" ht="165" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="11" t="s">
+      <c r="B6" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="C6" s="11"/>
-      <c r="D6" s="11"/>
+      <c r="C6" s="10"/>
+      <c r="D6" s="10"/>
       <c r="E6" s="1" t="s">
         <v>43</v>
       </c>
@@ -2741,20 +2941,20 @@
       <c r="I6" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="J6" s="9" t="s">
-        <v>109</v>
-      </c>
-      <c r="K6" s="10"/>
+      <c r="J6" s="12" t="s">
+        <v>106</v>
+      </c>
+      <c r="K6" s="13"/>
     </row>
     <row r="7" spans="1:17" ht="177" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="11" t="s">
+      <c r="B7" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="C7" s="11"/>
-      <c r="D7" s="11"/>
+      <c r="C7" s="10"/>
+      <c r="D7" s="10"/>
       <c r="E7" s="1" t="s">
         <v>46</v>
       </c>
@@ -2770,18 +2970,18 @@
       <c r="I7" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="J7" s="9"/>
-      <c r="K7" s="10"/>
+      <c r="J7" s="12"/>
+      <c r="K7" s="13"/>
     </row>
     <row r="8" spans="1:17" ht="183.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="11" t="s">
+      <c r="B8" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="C8" s="11"/>
-      <c r="D8" s="11"/>
+      <c r="C8" s="10"/>
+      <c r="D8" s="10"/>
       <c r="E8" s="1" t="s">
         <v>51</v>
       </c>
@@ -2797,18 +2997,18 @@
       <c r="I8" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="J8" s="9"/>
-      <c r="K8" s="10"/>
+      <c r="J8" s="12"/>
+      <c r="K8" s="13"/>
     </row>
     <row r="9" spans="1:17" ht="211.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B9" s="11" t="s">
+      <c r="B9" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="C9" s="11"/>
-      <c r="D9" s="11"/>
+      <c r="C9" s="10"/>
+      <c r="D9" s="10"/>
       <c r="E9" s="1" t="s">
         <v>52</v>
       </c>
@@ -2824,18 +3024,18 @@
       <c r="I9" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="J9" s="9"/>
-      <c r="K9" s="10"/>
+      <c r="J9" s="12"/>
+      <c r="K9" s="13"/>
     </row>
     <row r="10" spans="1:17" ht="220.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B10" s="11" t="s">
+      <c r="B10" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="C10" s="11"/>
-      <c r="D10" s="11"/>
+      <c r="C10" s="10"/>
+      <c r="D10" s="10"/>
       <c r="E10" s="1" t="s">
         <v>55</v>
       </c>
@@ -2851,20 +3051,20 @@
       <c r="I10" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="J10" s="9" t="s">
-        <v>109</v>
-      </c>
-      <c r="K10" s="10"/>
+      <c r="J10" s="12" t="s">
+        <v>106</v>
+      </c>
+      <c r="K10" s="13"/>
     </row>
     <row r="11" spans="1:17" ht="135" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
+      <c r="A11" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="B11" s="11" t="s">
+      <c r="B11" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="C11" s="11"/>
-      <c r="D11" s="11"/>
+      <c r="C11" s="10"/>
+      <c r="D11" s="10"/>
       <c r="E11" s="1" t="s">
         <v>60</v>
       </c>
@@ -2880,23 +3080,23 @@
       <c r="I11" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="J11" s="9"/>
-      <c r="K11" s="10"/>
+      <c r="J11" s="12"/>
+      <c r="K11" s="13"/>
     </row>
     <row r="12" spans="1:17" ht="165" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
+      <c r="A12" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="B12" s="11" t="s">
-        <v>110</v>
-      </c>
-      <c r="C12" s="11"/>
-      <c r="D12" s="11"/>
+      <c r="B12" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="C12" s="10"/>
+      <c r="D12" s="10"/>
       <c r="E12" s="1" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="G12" s="1" t="s">
         <v>57</v>
@@ -2905,27 +3105,27 @@
         <v>44374</v>
       </c>
       <c r="I12" s="6" t="s">
-        <v>113</v>
-      </c>
-      <c r="J12" s="9" t="s">
         <v>109</v>
       </c>
-      <c r="K12" s="10"/>
+      <c r="J12" s="12" t="s">
+        <v>106</v>
+      </c>
+      <c r="K12" s="13"/>
     </row>
-    <row r="13" spans="1:17" ht="135" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
+    <row r="13" spans="1:17" ht="120" x14ac:dyDescent="0.25">
+      <c r="A13" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="B13" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="C13" s="11"/>
-      <c r="D13" s="11"/>
+      <c r="B13" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="C13" s="10"/>
+      <c r="D13" s="10"/>
       <c r="E13" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>64</v>
+        <v>111</v>
+      </c>
+      <c r="F13" s="9" t="s">
+        <v>108</v>
       </c>
       <c r="G13" s="1" t="s">
         <v>57</v>
@@ -2934,81 +3134,81 @@
         <v>44374</v>
       </c>
       <c r="I13" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="J13" s="9" t="s">
         <v>109</v>
       </c>
-      <c r="K13" s="10"/>
+      <c r="J13" s="12" t="s">
+        <v>106</v>
+      </c>
+      <c r="K13" s="13"/>
     </row>
-    <row r="14" spans="1:17" ht="135" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
+    <row r="14" spans="1:17" ht="197.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="B14" s="11" t="s">
-        <v>68</v>
-      </c>
-      <c r="C14" s="11"/>
-      <c r="D14" s="11"/>
-      <c r="E14" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="G14" s="1" t="s">
-        <v>32</v>
+      <c r="B14" s="10" t="s">
+        <v>118</v>
+      </c>
+      <c r="C14" s="10"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="F14" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="G14" s="9" t="s">
+        <v>57</v>
       </c>
       <c r="H14" s="7">
         <v>44374</v>
       </c>
       <c r="I14" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="J14" s="9"/>
-      <c r="K14" s="10"/>
+        <v>64</v>
+      </c>
+      <c r="J14" s="12"/>
+      <c r="K14" s="13"/>
     </row>
-    <row r="15" spans="1:17" ht="132" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
+    <row r="15" spans="1:17" ht="135" x14ac:dyDescent="0.25">
+      <c r="A15" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="B15" s="11" t="s">
-        <v>75</v>
-      </c>
-      <c r="C15" s="11"/>
-      <c r="D15" s="11"/>
-      <c r="E15" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="G15" s="1" t="s">
-        <v>32</v>
+      <c r="B15" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="C15" s="10"/>
+      <c r="D15" s="10"/>
+      <c r="E15" s="9" t="s">
+        <v>115</v>
+      </c>
+      <c r="F15" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="G15" s="9" t="s">
+        <v>57</v>
       </c>
       <c r="H15" s="7">
         <v>44374</v>
       </c>
       <c r="I15" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="J15" s="9"/>
-      <c r="K15" s="10"/>
+        <v>64</v>
+      </c>
+      <c r="J15" s="12"/>
+      <c r="K15" s="13"/>
     </row>
-    <row r="16" spans="1:17" ht="144" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
+    <row r="16" spans="1:17" ht="135" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="B16" s="11" t="s">
-        <v>76</v>
-      </c>
-      <c r="C16" s="11"/>
-      <c r="D16" s="11"/>
+      <c r="B16" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="C16" s="10"/>
+      <c r="D16" s="10"/>
       <c r="E16" s="1" t="s">
-        <v>77</v>
+        <v>66</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="G16" s="1" t="s">
         <v>32</v>
@@ -3017,25 +3217,25 @@
         <v>44374</v>
       </c>
       <c r="I16" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="J16" s="9"/>
-      <c r="K16" s="10"/>
+        <v>68</v>
+      </c>
+      <c r="J16" s="12"/>
+      <c r="K16" s="13"/>
     </row>
-    <row r="17" spans="1:11" ht="126.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
+    <row r="17" spans="1:11" ht="132" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="B17" s="11" t="s">
-        <v>80</v>
-      </c>
-      <c r="C17" s="11"/>
-      <c r="D17" s="11"/>
+      <c r="B17" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="C17" s="10"/>
+      <c r="D17" s="10"/>
       <c r="E17" s="1" t="s">
-        <v>81</v>
+        <v>69</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>82</v>
+        <v>70</v>
       </c>
       <c r="G17" s="1" t="s">
         <v>32</v>
@@ -3044,25 +3244,25 @@
         <v>44374</v>
       </c>
       <c r="I17" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="J17" s="9"/>
-      <c r="K17" s="10"/>
+        <v>71</v>
+      </c>
+      <c r="J17" s="12"/>
+      <c r="K17" s="13"/>
     </row>
-    <row r="18" spans="1:11" ht="126" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
+    <row r="18" spans="1:11" ht="144" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="B18" s="11" t="s">
-        <v>84</v>
-      </c>
-      <c r="C18" s="11"/>
-      <c r="D18" s="11"/>
+      <c r="B18" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="C18" s="10"/>
+      <c r="D18" s="10"/>
       <c r="E18" s="1" t="s">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="G18" s="1" t="s">
         <v>32</v>
@@ -3071,25 +3271,25 @@
         <v>44374</v>
       </c>
       <c r="I18" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="J18" s="9"/>
-      <c r="K18" s="10"/>
+        <v>76</v>
+      </c>
+      <c r="J18" s="12"/>
+      <c r="K18" s="13"/>
     </row>
-    <row r="19" spans="1:11" ht="142.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
+    <row r="19" spans="1:11" ht="126.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="B19" s="11" t="s">
-        <v>89</v>
-      </c>
-      <c r="C19" s="11"/>
-      <c r="D19" s="11"/>
+      <c r="B19" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="C19" s="10"/>
+      <c r="D19" s="10"/>
       <c r="E19" s="1" t="s">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="G19" s="1" t="s">
         <v>32</v>
@@ -3098,25 +3298,25 @@
         <v>44374</v>
       </c>
       <c r="I19" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="J19" s="9"/>
-      <c r="K19" s="10"/>
+        <v>80</v>
+      </c>
+      <c r="J19" s="12"/>
+      <c r="K19" s="13"/>
     </row>
-    <row r="20" spans="1:11" ht="117" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="s">
+    <row r="20" spans="1:11" ht="126" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="B20" s="11" t="s">
-        <v>93</v>
-      </c>
-      <c r="C20" s="11"/>
-      <c r="D20" s="11"/>
+      <c r="B20" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="C20" s="10"/>
+      <c r="D20" s="10"/>
       <c r="E20" s="1" t="s">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="G20" s="1" t="s">
         <v>32</v>
@@ -3125,25 +3325,25 @@
         <v>44374</v>
       </c>
       <c r="I20" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="J20" s="9"/>
-      <c r="K20" s="10"/>
+        <v>84</v>
+      </c>
+      <c r="J20" s="12"/>
+      <c r="K20" s="13"/>
     </row>
-    <row r="21" spans="1:11" ht="123.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="1" t="s">
+    <row r="21" spans="1:11" ht="142.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="B21" s="11" t="s">
-        <v>100</v>
-      </c>
-      <c r="C21" s="11"/>
-      <c r="D21" s="11"/>
+      <c r="B21" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="C21" s="10"/>
+      <c r="D21" s="10"/>
       <c r="E21" s="1" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
       <c r="G21" s="1" t="s">
         <v>32</v>
@@ -3152,25 +3352,25 @@
         <v>44374</v>
       </c>
       <c r="I21" s="6" t="s">
-        <v>99</v>
-      </c>
-      <c r="J21" s="9"/>
-      <c r="K21" s="10"/>
+        <v>89</v>
+      </c>
+      <c r="J21" s="12"/>
+      <c r="K21" s="13"/>
     </row>
-    <row r="22" spans="1:11" ht="124.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="1" t="s">
+    <row r="22" spans="1:11" ht="117" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="B22" s="11" t="s">
-        <v>101</v>
-      </c>
-      <c r="C22" s="11"/>
-      <c r="D22" s="11"/>
+      <c r="B22" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="C22" s="10"/>
+      <c r="D22" s="10"/>
       <c r="E22" s="1" t="s">
-        <v>102</v>
+        <v>91</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>103</v>
+        <v>92</v>
       </c>
       <c r="G22" s="1" t="s">
         <v>32</v>
@@ -3179,25 +3379,25 @@
         <v>44374</v>
       </c>
       <c r="I22" s="6" t="s">
-        <v>104</v>
-      </c>
-      <c r="J22" s="9"/>
-      <c r="K22" s="10"/>
+        <v>93</v>
+      </c>
+      <c r="J22" s="12"/>
+      <c r="K22" s="13"/>
     </row>
-    <row r="23" spans="1:11" ht="126.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="B23" s="11" t="s">
-        <v>105</v>
-      </c>
-      <c r="C23" s="11"/>
-      <c r="D23" s="11"/>
+    <row r="23" spans="1:11" ht="123.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="B23" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="C23" s="10"/>
+      <c r="D23" s="10"/>
       <c r="E23" s="1" t="s">
-        <v>106</v>
+        <v>94</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>107</v>
+        <v>95</v>
       </c>
       <c r="G23" s="1" t="s">
         <v>32</v>
@@ -3206,14 +3406,101 @@
         <v>44374</v>
       </c>
       <c r="I23" s="6" t="s">
-        <v>108</v>
-      </c>
-      <c r="J23" s="9"/>
-      <c r="K23" s="10"/>
+        <v>96</v>
+      </c>
+      <c r="J23" s="12"/>
+      <c r="K23" s="13"/>
+    </row>
+    <row r="24" spans="1:11" ht="124.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="B24" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="C24" s="10"/>
+      <c r="D24" s="10"/>
+      <c r="E24" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="H24" s="7">
+        <v>44374</v>
+      </c>
+      <c r="I24" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="J24" s="12"/>
+      <c r="K24" s="13"/>
+    </row>
+    <row r="25" spans="1:11" ht="126.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="9" t="s">
+        <v>117</v>
+      </c>
+      <c r="B25" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="C25" s="10"/>
+      <c r="D25" s="10"/>
+      <c r="E25" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="H25" s="7">
+        <v>44374</v>
+      </c>
+      <c r="I25" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="J25" s="12"/>
+      <c r="K25" s="13"/>
     </row>
   </sheetData>
-  <mergeCells count="45">
-    <mergeCell ref="B15:D15"/>
+  <mergeCells count="49">
+    <mergeCell ref="J23:K23"/>
+    <mergeCell ref="B24:D24"/>
+    <mergeCell ref="J24:K24"/>
+    <mergeCell ref="B25:D25"/>
+    <mergeCell ref="J25:K25"/>
+    <mergeCell ref="J18:K18"/>
+    <mergeCell ref="J19:K19"/>
+    <mergeCell ref="J20:K20"/>
+    <mergeCell ref="J21:K21"/>
+    <mergeCell ref="J22:K22"/>
+    <mergeCell ref="J10:K10"/>
+    <mergeCell ref="J11:K11"/>
+    <mergeCell ref="J12:K12"/>
+    <mergeCell ref="J13:K13"/>
+    <mergeCell ref="J16:K16"/>
+    <mergeCell ref="J14:K14"/>
+    <mergeCell ref="J15:K15"/>
+    <mergeCell ref="J17:K17"/>
+    <mergeCell ref="B23:D23"/>
+    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="J3:K3"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="J5:K5"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="J8:K8"/>
+    <mergeCell ref="J9:K9"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="B17:D17"/>
     <mergeCell ref="B2:D2"/>
     <mergeCell ref="B3:D3"/>
     <mergeCell ref="B4:D4"/>
@@ -3226,38 +3513,9 @@
     <mergeCell ref="B11:D11"/>
     <mergeCell ref="B12:D12"/>
     <mergeCell ref="B13:D13"/>
+    <mergeCell ref="B16:D16"/>
     <mergeCell ref="B14:D14"/>
-    <mergeCell ref="J15:K15"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="A1:K1"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="J3:K3"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="J5:K5"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="J8:K8"/>
-    <mergeCell ref="J9:K9"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="J10:K10"/>
-    <mergeCell ref="J11:K11"/>
-    <mergeCell ref="J12:K12"/>
-    <mergeCell ref="J13:K13"/>
-    <mergeCell ref="J14:K14"/>
-    <mergeCell ref="J16:K16"/>
-    <mergeCell ref="J17:K17"/>
-    <mergeCell ref="J18:K18"/>
-    <mergeCell ref="J19:K19"/>
-    <mergeCell ref="J20:K20"/>
-    <mergeCell ref="J21:K21"/>
-    <mergeCell ref="B22:D22"/>
-    <mergeCell ref="J22:K22"/>
-    <mergeCell ref="B23:D23"/>
-    <mergeCell ref="J23:K23"/>
+    <mergeCell ref="B15:D15"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
